--- a/Documentation/Deliverables/MIDTERMS PPT SLIDES/ManhourBreakdown.xlsx
+++ b/Documentation/Deliverables/MIDTERMS PPT SLIDES/ManhourBreakdown.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\FYP GIT\Ulink\Documentation\Deliverables\MIDTERMS PPT SLIDES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,10 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="58">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -181,9 +177,6 @@
   </si>
   <si>
     <t>Planned: 160</t>
-  </si>
-  <si>
-    <t>Planned: 130</t>
   </si>
   <si>
     <t>Planned: 80</t>
@@ -1323,7 +1316,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1339,111 +1338,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="UT2 results"/>
-      <sheetName val="UT3 results"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>Planned</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Actual</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>80</v>
-          </cell>
-          <cell r="D3">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>140</v>
-          </cell>
-          <cell r="D4">
-            <v>153.25</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>45</v>
-          </cell>
-          <cell r="D5">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>90</v>
-          </cell>
-          <cell r="D6">
-            <v>111.25</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>150</v>
-          </cell>
-          <cell r="D7">
-            <v>155</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>150</v>
-          </cell>
-          <cell r="D8">
-            <v>170</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>150</v>
-          </cell>
-          <cell r="D9">
-            <v>142</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>160</v>
-          </cell>
-          <cell r="D10">
-            <v>155</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1745,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1926,7 +1820,7 @@
         <v>1.5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="4">
         <v>8</v>
@@ -2153,7 +2047,7 @@
         <v>5.5</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2357,7 +2251,7 @@
         <v>0.5</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2555,7 +2449,7 @@
         <v>0.5</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -3389,7 +3283,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>29</v>
       </c>
@@ -3461,22 +3355,42 @@
       <c r="A97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
+      <c r="B97" s="8">
+        <v>15</v>
+      </c>
+      <c r="C97" s="8">
+        <v>15</v>
+      </c>
+      <c r="D97" s="8">
+        <v>14</v>
+      </c>
+      <c r="E97" s="8">
+        <v>14</v>
+      </c>
+      <c r="F97" s="8">
+        <v>14</v>
+      </c>
       <c r="G97" s="2"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
+      <c r="B98" s="8">
+        <v>6</v>
+      </c>
+      <c r="C98" s="8">
+        <v>6</v>
+      </c>
+      <c r="D98" s="8">
+        <v>6</v>
+      </c>
+      <c r="E98" s="8">
+        <v>6</v>
+      </c>
+      <c r="F98" s="8">
+        <v>6</v>
+      </c>
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -3485,16 +3399,24 @@
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
+      <c r="D99" s="8">
+        <v>6</v>
+      </c>
+      <c r="E99" s="8">
+        <v>6</v>
+      </c>
+      <c r="F99" s="8">
+        <v>8</v>
+      </c>
       <c r="G99" s="2"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="8"/>
+      <c r="B100" s="8">
+        <v>7</v>
+      </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -3507,9 +3429,15 @@
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
+      <c r="D101" s="7">
+        <v>7</v>
+      </c>
+      <c r="E101" s="7">
+        <v>7</v>
+      </c>
+      <c r="F101" s="7">
+        <v>7</v>
+      </c>
       <c r="G101" s="2"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -3517,7 +3445,9 @@
         <v>16</v>
       </c>
       <c r="B102" s="7"/>
-      <c r="C102" s="8"/>
+      <c r="C102" s="8">
+        <v>5</v>
+      </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -3527,8 +3457,12 @@
       <c r="A103" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="8"/>
+      <c r="B103" s="7">
+        <v>5</v>
+      </c>
+      <c r="C103" s="8">
+        <v>6</v>
+      </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -3545,7 +3479,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -3564,32 +3498,32 @@
       </c>
       <c r="B106" s="8">
         <f>SUM(B97:B105)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C106" s="8">
         <f t="shared" ref="C106:F106" si="8">SUM(C97:C105)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D106" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E106" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F106" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G106" s="5">
         <f>SUM(B106:F106)</f>
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>1</v>
@@ -3612,22 +3546,42 @@
       <c r="A109" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
+      <c r="B109" s="8">
+        <v>15</v>
+      </c>
+      <c r="C109" s="8">
+        <v>15</v>
+      </c>
+      <c r="D109" s="8">
+        <v>14</v>
+      </c>
+      <c r="E109" s="8">
+        <v>14</v>
+      </c>
+      <c r="F109" s="8">
+        <v>14</v>
+      </c>
       <c r="G109" s="2"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
+      <c r="B110" s="8">
+        <v>6</v>
+      </c>
+      <c r="C110" s="8">
+        <v>6</v>
+      </c>
+      <c r="D110" s="8">
+        <v>6</v>
+      </c>
+      <c r="E110" s="8">
+        <v>6</v>
+      </c>
+      <c r="F110" s="8">
+        <v>6</v>
+      </c>
       <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3636,16 +3590,24 @@
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
+      <c r="D111" s="8">
+        <v>3</v>
+      </c>
+      <c r="E111" s="8">
+        <v>3</v>
+      </c>
+      <c r="F111" s="8">
+        <v>3</v>
+      </c>
       <c r="G111" s="2"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B112" s="8"/>
+      <c r="B112" s="8">
+        <v>7</v>
+      </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -3658,9 +3620,15 @@
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
+      <c r="D113" s="7">
+        <v>7</v>
+      </c>
+      <c r="E113" s="7">
+        <v>7</v>
+      </c>
+      <c r="F113" s="7">
+        <v>7</v>
+      </c>
       <c r="G113" s="2"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -3668,7 +3636,9 @@
         <v>16</v>
       </c>
       <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
+      <c r="C114" s="8">
+        <v>6</v>
+      </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -3678,8 +3648,12 @@
       <c r="A115" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
+      <c r="B115" s="7">
+        <v>5</v>
+      </c>
+      <c r="C115" s="8">
+        <v>6</v>
+      </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
@@ -3696,7 +3670,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>29</v>
       </c>
@@ -3706,7 +3680,7 @@
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -3715,32 +3689,32 @@
       </c>
       <c r="B118" s="8">
         <f>SUM(B109:B117)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C118" s="8">
         <f t="shared" ref="C118:F118" si="9">SUM(C109:C117)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D118" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E118" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F118" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G118" s="5">
         <f>SUM(B118:F118)</f>
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>1</v>
@@ -3763,22 +3737,42 @@
       <c r="A122" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
+      <c r="B122" s="8">
+        <v>15</v>
+      </c>
+      <c r="C122" s="8">
+        <v>15</v>
+      </c>
+      <c r="D122" s="8">
+        <v>14</v>
+      </c>
+      <c r="E122" s="8">
+        <v>14</v>
+      </c>
+      <c r="F122" s="8">
+        <v>14</v>
+      </c>
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
+      <c r="B123" s="8">
+        <v>6</v>
+      </c>
+      <c r="C123" s="8">
+        <v>6</v>
+      </c>
+      <c r="D123" s="8">
+        <v>6</v>
+      </c>
+      <c r="E123" s="8">
+        <v>6</v>
+      </c>
+      <c r="F123" s="8">
+        <v>6</v>
+      </c>
       <c r="G123" s="2"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -3787,16 +3781,24 @@
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
+      <c r="D124" s="8">
+        <v>3</v>
+      </c>
+      <c r="E124" s="8">
+        <v>3</v>
+      </c>
+      <c r="F124" s="8">
+        <v>3</v>
+      </c>
       <c r="G124" s="2"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B125" s="8"/>
+      <c r="B125" s="8">
+        <v>7</v>
+      </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -3809,9 +3811,15 @@
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="D126" s="7">
+        <v>7</v>
+      </c>
+      <c r="E126" s="7">
+        <v>7</v>
+      </c>
+      <c r="F126" s="7">
+        <v>7</v>
+      </c>
       <c r="G126" s="2"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -3819,7 +3827,9 @@
         <v>16</v>
       </c>
       <c r="B127" s="7"/>
-      <c r="C127" s="8"/>
+      <c r="C127" s="8">
+        <v>5</v>
+      </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
@@ -3829,8 +3839,12 @@
       <c r="A128" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B128" s="7"/>
-      <c r="C128" s="8"/>
+      <c r="B128" s="7">
+        <v>5</v>
+      </c>
+      <c r="C128" s="8">
+        <v>6</v>
+      </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -3847,7 +3861,7 @@
       <c r="F129" s="7"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>29</v>
       </c>
@@ -3857,7 +3871,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -3866,32 +3880,32 @@
       </c>
       <c r="B131" s="8">
         <f>SUM(B122:B130)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C131" s="8">
         <f t="shared" ref="C131:F131" si="10">SUM(C122:C130)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D131" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E131" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F131" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G131" s="5">
         <f>SUM(B131:F131)</f>
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>1</v>
@@ -3914,22 +3928,42 @@
       <c r="A134" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
+      <c r="B134" s="8">
+        <v>12</v>
+      </c>
+      <c r="C134" s="8">
+        <v>12</v>
+      </c>
+      <c r="D134" s="8">
+        <v>12</v>
+      </c>
+      <c r="E134" s="8">
+        <v>12</v>
+      </c>
+      <c r="F134" s="8">
+        <v>12</v>
+      </c>
       <c r="G134" s="2"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
+      <c r="B135" s="8">
+        <v>7</v>
+      </c>
+      <c r="C135" s="8">
+        <v>7</v>
+      </c>
+      <c r="D135" s="8">
+        <v>6</v>
+      </c>
+      <c r="E135" s="8">
+        <v>6</v>
+      </c>
+      <c r="F135" s="8">
+        <v>6</v>
+      </c>
       <c r="G135" s="2"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -3938,16 +3972,24 @@
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
+      <c r="D136" s="8">
+        <v>3</v>
+      </c>
+      <c r="E136" s="8">
+        <v>3</v>
+      </c>
+      <c r="F136" s="8">
+        <v>3</v>
+      </c>
       <c r="G136" s="2"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B137" s="8"/>
+      <c r="B137" s="8">
+        <v>7</v>
+      </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
@@ -3960,9 +4002,15 @@
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
+      <c r="D138" s="7">
+        <v>7</v>
+      </c>
+      <c r="E138" s="7">
+        <v>7</v>
+      </c>
+      <c r="F138" s="7">
+        <v>7</v>
+      </c>
       <c r="G138" s="2"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -3970,7 +4018,9 @@
         <v>16</v>
       </c>
       <c r="B139" s="7"/>
-      <c r="C139" s="8"/>
+      <c r="C139" s="8">
+        <v>5</v>
+      </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
@@ -3980,8 +4030,12 @@
       <c r="A140" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="8"/>
+      <c r="B140" s="7">
+        <v>5</v>
+      </c>
+      <c r="C140" s="8">
+        <v>6</v>
+      </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
@@ -4008,7 +4062,7 @@
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
       <c r="G142" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -4017,27 +4071,27 @@
       </c>
       <c r="B143" s="8">
         <f>SUM(B134:B142)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C143" s="8">
         <f t="shared" ref="C143:F143" si="11">SUM(C134:C142)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D143" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E143" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F143" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G143" s="5">
         <f>SUM(B143:F143)</f>
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
